--- a/DB/временно/НАКОПЛЕНИЕ  РДЦ  12.08.2023г.xlsx
+++ b/DB/временно/НАКОПЛЕНИЕ  РДЦ  12.08.2023г.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CC44C3-6CEE-4448-B003-2D03534588BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC860A75-E811-4966-AC4F-461ED9C75004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3474,7 +3474,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BV5" sqref="BV5:BW5"/>
+      <selection pane="bottomRight" activeCell="BX5" sqref="BX5:BY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,8 +4622,12 @@
       <c r="BW7" s="209">
         <v>11.523000000000593</v>
       </c>
-      <c r="BX7" s="18"/>
-      <c r="BY7" s="22"/>
+      <c r="BX7" s="18">
+        <v>12.35</v>
+      </c>
+      <c r="BY7" s="22">
+        <v>11.470000000000709</v>
+      </c>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="22"/>
       <c r="CB7" s="18"/>
@@ -4803,8 +4807,12 @@
       <c r="BW8" s="43">
         <v>36.782899999999039</v>
       </c>
-      <c r="BX8" s="42"/>
-      <c r="BY8" s="44"/>
+      <c r="BX8" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="BY8" s="44">
+        <v>28.00595000000289</v>
+      </c>
       <c r="BZ8" s="42"/>
       <c r="CA8" s="44"/>
       <c r="CB8" s="42"/>
@@ -4984,8 +4992,12 @@
       <c r="BW9" s="43">
         <v>20.323999999999998</v>
       </c>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="44"/>
+      <c r="BX9" s="42">
+        <v>45.06</v>
+      </c>
+      <c r="BY9" s="44">
+        <v>20.312000000000001</v>
+      </c>
       <c r="BZ9" s="42"/>
       <c r="CA9" s="44"/>
       <c r="CB9" s="42"/>
@@ -5163,8 +5175,12 @@
       <c r="BW10" s="43">
         <v>98.197439999993435</v>
       </c>
-      <c r="BX10" s="42"/>
-      <c r="BY10" s="44"/>
+      <c r="BX10" s="42">
+        <v>92.89</v>
+      </c>
+      <c r="BY10" s="44">
+        <v>92.59457999999826</v>
+      </c>
       <c r="BZ10" s="42"/>
       <c r="CA10" s="44"/>
       <c r="CB10" s="42"/>
@@ -5342,8 +5358,12 @@
       <c r="BW11" s="43">
         <v>180.07700000003661</v>
       </c>
-      <c r="BX11" s="42"/>
-      <c r="BY11" s="44"/>
+      <c r="BX11" s="42">
+        <v>115.39</v>
+      </c>
+      <c r="BY11" s="44">
+        <v>121.49799999996776</v>
+      </c>
       <c r="BZ11" s="42"/>
       <c r="CA11" s="44"/>
       <c r="CB11" s="42"/>
@@ -5521,8 +5541,12 @@
       <c r="BW12" s="43">
         <v>2.78</v>
       </c>
-      <c r="BX12" s="42"/>
-      <c r="BY12" s="44"/>
+      <c r="BX12" s="42">
+        <v>2.78</v>
+      </c>
+      <c r="BY12" s="44">
+        <v>2.78</v>
+      </c>
       <c r="BZ12" s="42"/>
       <c r="CA12" s="44"/>
       <c r="CB12" s="42"/>
@@ -5700,8 +5724,12 @@
       <c r="BW13" s="43">
         <v>1.1599999999999999</v>
       </c>
-      <c r="BX13" s="42"/>
-      <c r="BY13" s="44"/>
+      <c r="BX13" s="42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BY13" s="44">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="BZ13" s="42"/>
       <c r="CA13" s="44"/>
       <c r="CB13" s="42"/>
@@ -5879,8 +5907,12 @@
       <c r="BW14" s="43">
         <v>207.22600000001512</v>
       </c>
-      <c r="BX14" s="42"/>
-      <c r="BY14" s="44"/>
+      <c r="BX14" s="42">
+        <v>187.2</v>
+      </c>
+      <c r="BY14" s="44">
+        <v>209.15800000000309</v>
+      </c>
       <c r="BZ14" s="42"/>
       <c r="CA14" s="44"/>
       <c r="CB14" s="42"/>
@@ -6058,8 +6090,12 @@
       <c r="BW15" s="43">
         <v>41.702520000002515</v>
       </c>
-      <c r="BX15" s="42"/>
-      <c r="BY15" s="44"/>
+      <c r="BX15" s="42">
+        <v>38.4</v>
+      </c>
+      <c r="BY15" s="44">
+        <v>35.78665999999852</v>
+      </c>
       <c r="BZ15" s="42"/>
       <c r="CA15" s="44"/>
       <c r="CB15" s="42"/>
@@ -6237,8 +6273,12 @@
       <c r="BW16" s="43">
         <v>22.04</v>
       </c>
-      <c r="BX16" s="42"/>
-      <c r="BY16" s="44"/>
+      <c r="BX16" s="42">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="BY16" s="44">
+        <v>23.31</v>
+      </c>
       <c r="BZ16" s="42"/>
       <c r="CA16" s="44"/>
       <c r="CB16" s="42"/>
@@ -6416,8 +6456,12 @@
       <c r="BW17" s="43">
         <v>6.5</v>
       </c>
-      <c r="BX17" s="42"/>
-      <c r="BY17" s="44"/>
+      <c r="BX17" s="42">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="BY17" s="44">
+        <v>6.5</v>
+      </c>
       <c r="BZ17" s="42"/>
       <c r="CA17" s="44"/>
       <c r="CB17" s="42"/>
@@ -6595,8 +6639,12 @@
       <c r="BW18" s="43">
         <v>33.529000000093163</v>
       </c>
-      <c r="BX18" s="42"/>
-      <c r="BY18" s="44"/>
+      <c r="BX18" s="42">
+        <v>43.2</v>
+      </c>
+      <c r="BY18" s="44">
+        <v>38.917999999904055</v>
+      </c>
       <c r="BZ18" s="42"/>
       <c r="CA18" s="44"/>
       <c r="CB18" s="42"/>
@@ -6774,8 +6822,12 @@
       <c r="BW19" s="43">
         <v>24.088999999999999</v>
       </c>
-      <c r="BX19" s="42"/>
-      <c r="BY19" s="44"/>
+      <c r="BX19" s="42">
+        <v>26.4</v>
+      </c>
+      <c r="BY19" s="44">
+        <v>21.274000000000001</v>
+      </c>
       <c r="BZ19" s="42"/>
       <c r="CA19" s="44"/>
       <c r="CB19" s="42"/>
@@ -6953,8 +7005,12 @@
       <c r="BW20" s="43">
         <v>8.5</v>
       </c>
-      <c r="BX20" s="42"/>
-      <c r="BY20" s="44"/>
+      <c r="BX20" s="42">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="BY20" s="44">
+        <v>8.5</v>
+      </c>
       <c r="BZ20" s="42"/>
       <c r="CA20" s="44"/>
       <c r="CB20" s="42"/>
@@ -7132,8 +7188,12 @@
       <c r="BW21" s="54">
         <v>0.08</v>
       </c>
-      <c r="BX21" s="42"/>
-      <c r="BY21" s="55"/>
+      <c r="BX21" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="BY21" s="55">
+        <v>0.08</v>
+      </c>
       <c r="BZ21" s="42"/>
       <c r="CA21" s="55"/>
       <c r="CB21" s="42"/>
@@ -7311,8 +7371,12 @@
       <c r="BW22" s="56">
         <v>352.45254000005599</v>
       </c>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="57"/>
+      <c r="BX22" s="42">
+        <v>396.7</v>
+      </c>
+      <c r="BY22" s="57">
+        <v>323.93921999991028</v>
+      </c>
       <c r="BZ22" s="42"/>
       <c r="CA22" s="57"/>
       <c r="CB22" s="42"/>
@@ -7490,8 +7554,12 @@
       <c r="BW23" s="56">
         <v>50</v>
       </c>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="57"/>
+      <c r="BX23" s="42">
+        <v>43.13</v>
+      </c>
+      <c r="BY23" s="57">
+        <v>50</v>
+      </c>
       <c r="BZ23" s="42"/>
       <c r="CA23" s="57"/>
       <c r="CB23" s="42"/>
@@ -7671,8 +7739,12 @@
       <c r="BW24" s="210">
         <v>-4.8719999997010746</v>
       </c>
-      <c r="BX24" s="197"/>
-      <c r="BY24" s="205"/>
+      <c r="BX24" s="197">
+        <v>41.855999999504434</v>
+      </c>
+      <c r="BY24" s="205">
+        <v>41.855999999504434</v>
+      </c>
       <c r="BZ24" s="197"/>
       <c r="CA24" s="205"/>
       <c r="CB24" s="197"/>
@@ -7850,8 +7922,12 @@
       <c r="BW25" s="43">
         <v>28.050819999994136</v>
       </c>
-      <c r="BX25" s="92"/>
-      <c r="BY25" s="44"/>
+      <c r="BX25" s="92">
+        <v>25.26</v>
+      </c>
+      <c r="BY25" s="44">
+        <v>21.46612000005986</v>
+      </c>
       <c r="BZ25" s="92"/>
       <c r="CA25" s="44"/>
       <c r="CB25" s="92"/>
@@ -8029,8 +8105,12 @@
       <c r="BW26" s="43">
         <v>12.51</v>
       </c>
-      <c r="BX26" s="91"/>
-      <c r="BY26" s="44"/>
+      <c r="BX26" s="91">
+        <v>12.49</v>
+      </c>
+      <c r="BY26" s="44">
+        <v>12.49</v>
+      </c>
       <c r="BZ26" s="91"/>
       <c r="CA26" s="44"/>
       <c r="CB26" s="91"/>
@@ -8208,8 +8288,12 @@
       <c r="BW27" s="43">
         <v>0.48000000000001819</v>
       </c>
-      <c r="BX27" s="91"/>
-      <c r="BY27" s="44"/>
+      <c r="BX27" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="BY27" s="44">
+        <v>7.999999999992724E-2</v>
+      </c>
       <c r="BZ27" s="91"/>
       <c r="CA27" s="44"/>
       <c r="CB27" s="91"/>
@@ -8387,8 +8471,12 @@
       <c r="BW28" s="234">
         <v>26</v>
       </c>
-      <c r="BX28" s="288"/>
-      <c r="BY28" s="287"/>
+      <c r="BX28" s="288">
+        <v>24.24</v>
+      </c>
+      <c r="BY28" s="287">
+        <v>28</v>
+      </c>
       <c r="BZ28" s="288"/>
       <c r="CA28" s="287"/>
       <c r="CB28" s="288"/>
@@ -8526,8 +8614,12 @@
       <c r="BW29" s="188">
         <v>81.995999999984633</v>
       </c>
-      <c r="BX29" s="181"/>
-      <c r="BY29" s="180"/>
+      <c r="BX29" s="181">
+        <v>82.55</v>
+      </c>
+      <c r="BY29" s="180">
+        <v>83.472000000012486</v>
+      </c>
       <c r="BZ29" s="181"/>
       <c r="CA29" s="180"/>
       <c r="CB29" s="181"/>
@@ -8829,11 +8921,11 @@
       </c>
       <c r="BX30" s="115">
         <f t="shared" ref="BX30:DO30" si="9">SUM(BX7:BX29)</f>
-        <v>0</v>
+        <v>1246.6159999995048</v>
       </c>
       <c r="BY30" s="115">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1182.6505299993623</v>
       </c>
       <c r="BZ30" s="115">
         <f t="shared" si="9"/>
@@ -9118,7 +9210,9 @@
         <v>3611.9029999999998</v>
       </c>
       <c r="BW31" s="320"/>
-      <c r="BX31" s="298"/>
+      <c r="BX31" s="298">
+        <v>3145.2979999999998</v>
+      </c>
       <c r="BY31" s="320"/>
       <c r="BZ31" s="298"/>
       <c r="CA31" s="320"/>
@@ -9265,7 +9359,9 @@
         <v>2178.41</v>
       </c>
       <c r="BW32" s="310"/>
-      <c r="BX32" s="302"/>
+      <c r="BX32" s="302">
+        <v>2133</v>
+      </c>
       <c r="BY32" s="310"/>
       <c r="BZ32" s="302"/>
       <c r="CA32" s="310"/>
@@ -9412,7 +9508,9 @@
         <v>340.7</v>
       </c>
       <c r="BW33" s="322"/>
-      <c r="BX33" s="321"/>
+      <c r="BX33" s="321">
+        <v>341.5</v>
+      </c>
       <c r="BY33" s="322"/>
       <c r="BZ33" s="300"/>
       <c r="CA33" s="311"/>
@@ -9672,7 +9770,7 @@
       <c r="BW34" s="305"/>
       <c r="BX34" s="304">
         <f t="shared" ref="BX34" si="15">BX30+BX32+BX33</f>
-        <v>0</v>
+        <v>3721.1159999995048</v>
       </c>
       <c r="BY34" s="305"/>
       <c r="BZ34" s="304">
@@ -9996,7 +10094,7 @@
       <c r="BW35" s="307"/>
       <c r="BX35" s="306">
         <f t="shared" ref="BX35" si="32">BX31-BX34</f>
-        <v>0</v>
+        <v>-575.81799999950499</v>
       </c>
       <c r="BY35" s="307"/>
       <c r="BZ35" s="306">
@@ -10295,7 +10393,7 @@
       <c r="BW36" s="314"/>
       <c r="BX36" s="313">
         <f t="shared" ref="BX36" si="81">BX31-BY30-BX32-BX33</f>
-        <v>0</v>
+        <v>-511.85252999936256</v>
       </c>
       <c r="BY36" s="314"/>
       <c r="BZ36" s="313">
@@ -10648,7 +10746,9 @@
         <v>15683.91</v>
       </c>
       <c r="BW41" s="312"/>
-      <c r="BX41" s="312"/>
+      <c r="BX41" s="312">
+        <v>15688.98</v>
+      </c>
       <c r="BY41" s="312"/>
       <c r="BZ41" s="312"/>
       <c r="CA41" s="312"/>
@@ -10785,7 +10885,9 @@
         <v>773.64</v>
       </c>
       <c r="BW42" s="312"/>
-      <c r="BX42" s="312"/>
+      <c r="BX42" s="312">
+        <v>773.64</v>
+      </c>
       <c r="BY42" s="312"/>
       <c r="BZ42" s="312"/>
       <c r="CA42" s="312"/>
@@ -10922,7 +11024,9 @@
         <v>12.160000000000309</v>
       </c>
       <c r="BW43" s="312"/>
-      <c r="BX43" s="312"/>
+      <c r="BX43" s="312">
+        <v>6.7999999999997272</v>
+      </c>
       <c r="BY43" s="312"/>
       <c r="BZ43" s="312"/>
       <c r="CA43" s="312"/>
@@ -11059,7 +11163,9 @@
         <v>154.13999999997759</v>
       </c>
       <c r="BW44" s="312"/>
-      <c r="BX44" s="312"/>
+      <c r="BX44" s="312">
+        <v>151.06000000001222</v>
+      </c>
       <c r="BY44" s="312"/>
       <c r="BZ44" s="312"/>
       <c r="CA44" s="312"/>
@@ -11196,7 +11302,9 @@
         <v>40.320000000001528</v>
       </c>
       <c r="BW45" s="312"/>
-      <c r="BX45" s="312"/>
+      <c r="BX45" s="312">
+        <v>40.565000000000509</v>
+      </c>
       <c r="BY45" s="312"/>
       <c r="BZ45" s="312"/>
       <c r="CA45" s="312"/>
@@ -11333,7 +11441,9 @@
         <v>16909.415000000001</v>
       </c>
       <c r="BW46" s="312"/>
-      <c r="BX46" s="312"/>
+      <c r="BX46" s="312">
+        <v>16913.028999999999</v>
+      </c>
       <c r="BY46" s="312"/>
       <c r="BZ46" s="312"/>
       <c r="CA46" s="312"/>
@@ -11470,7 +11580,9 @@
         <v>4.46</v>
       </c>
       <c r="BW47" s="312"/>
-      <c r="BX47" s="312"/>
+      <c r="BX47" s="312">
+        <v>4.5599999999999996</v>
+      </c>
       <c r="BY47" s="312"/>
       <c r="BZ47" s="312"/>
       <c r="CA47" s="312"/>
@@ -11607,7 +11719,9 @@
         <v>66.599999999999994</v>
       </c>
       <c r="BW48" s="312"/>
-      <c r="BX48" s="312"/>
+      <c r="BX48" s="312">
+        <v>66.599999999999994</v>
+      </c>
       <c r="BY48" s="312"/>
       <c r="BZ48" s="312"/>
       <c r="CA48" s="312"/>
@@ -11744,7 +11858,9 @@
         <v>552.149</v>
       </c>
       <c r="BW49" s="312"/>
-      <c r="BX49" s="312"/>
+      <c r="BX49" s="312">
+        <v>544.60400000000004</v>
+      </c>
       <c r="BY49" s="312"/>
       <c r="BZ49" s="312"/>
       <c r="CA49" s="312"/>
@@ -11881,7 +11997,9 @@
         <v>68.227000000000004</v>
       </c>
       <c r="BW50" s="312"/>
-      <c r="BX50" s="312"/>
+      <c r="BX50" s="312">
+        <v>68.001999999999995</v>
+      </c>
       <c r="BY50" s="312"/>
       <c r="BZ50" s="312"/>
       <c r="CA50" s="312"/>
@@ -12018,7 +12136,9 @@
         <v>339.50400000001537</v>
       </c>
       <c r="BW51" s="312"/>
-      <c r="BX51" s="312"/>
+      <c r="BX51" s="312">
+        <v>372.43800000000192</v>
+      </c>
       <c r="BY51" s="312"/>
       <c r="BZ51" s="312"/>
       <c r="CA51" s="312"/>
@@ -12155,7 +12275,9 @@
         <v>1552.646</v>
       </c>
       <c r="BW52" s="312"/>
-      <c r="BX52" s="312"/>
+      <c r="BX52" s="312">
+        <v>1758.6120000000033</v>
+      </c>
       <c r="BY52" s="312"/>
       <c r="BZ52" s="312"/>
       <c r="CA52" s="312"/>
@@ -12292,7 +12414,9 @@
         <v>34.457999999995991</v>
       </c>
       <c r="BW53" s="312"/>
-      <c r="BX53" s="312"/>
+      <c r="BX53" s="312">
+        <v>32.32300000000032</v>
+      </c>
       <c r="BY53" s="312"/>
       <c r="BZ53" s="312"/>
       <c r="CA53" s="312"/>
